--- a/Data/Winrates_Data_Artikel.xlsx
+++ b/Data/Winrates_Data_Artikel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\Desktop\Speciale\Kode\Git\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA139B0-0CA9-45C0-B662-F7AD98A5069F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EF4A31-470D-4152-AF05-2BDA6C37D2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED2FC7AB-BAA1-43C0-A7D9-A8D85BC2DB46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED2FC7AB-BAA1-43C0-A7D9-A8D85BC2DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,15 +93,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,14 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E34DB1A-1D9F-4B23-8444-8EE9AA38CEF5}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -501,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -548,7 +540,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43.5</v>
       </c>
@@ -595,7 +587,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45.6</v>
       </c>
@@ -642,7 +634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48.4</v>
       </c>
@@ -689,7 +681,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>61.1</v>
       </c>
@@ -736,7 +728,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50.6</v>
       </c>
@@ -783,7 +775,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.9</v>
       </c>
@@ -830,7 +822,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>39</v>
       </c>
@@ -877,7 +869,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50.9</v>
       </c>
@@ -924,7 +916,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39.799999999999997</v>
       </c>
@@ -971,7 +963,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41.4</v>
       </c>
@@ -1018,7 +1010,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>48.2</v>
       </c>
@@ -1065,7 +1057,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>43.4</v>
       </c>
@@ -1112,7 +1104,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43.7</v>
       </c>
@@ -1159,7 +1151,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>54.9</v>
       </c>
@@ -1206,26 +1198,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
